--- a/hanhan.xlsx
+++ b/hanhan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1195">
   <si>
     <t>content</t>
   </si>
@@ -25,6 +25,9 @@
     <t>title</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
     <t>最近看见黄健翔辞职了。不知道真的假的说还有人打小报告。原来小报告是不分年纪的。我以前就老挨小报告，害得我自己居然还打过几次小报告。打小报告是作为男人最委琐的事情之一，对付小报告的办法有两个，第一就是暴力解决，见一次揍一次，让你大报告不做打小报告，我要是黄健翔，我就去打那打报告的，很公平嘛，上天给大家打一次的机会，你打了报告，我打了你。第二就是选择没有上级。这两个我都用过，第一个虽然好使，但远不如第二个一劳永逸。因为小报告永远是要向上级递交的，现在我连个领导也没有，你想打我小报告也没处给。如果我是个领导，我也永远不会重用打小报告的人。本来就是，报告就是报告，为什么叫小报告呢，因为是小人打的报告嘛。另外居然有人质疑担忧黄健翔的未来。这太可笑了。其实他发疯那会儿我没赶上现场。后来我看了他和董路的一个相声，觉得很好。我一直很喜欢能自嘲的人。想嘲我的人太多我就自嘲是种智慧。当然，想杀我的人太多我就自杀就是愚蠢。关于饭碗，中央5也不是什么特牛的台，况且我看到过一句话，真正的铁饭碗是无论去哪都有饭吃，而不是在一个地方吃一辈子饭关于CCTV5体育台，我个人是这样的，在有比赛的时候，能看ESPN就看ESPN，实在没就看上海台，上海台也没有就看广东台，广东台没有只好看央5，实在看不下去了就静音看画面。现在选择那么多，就央5那些只会唱样板戏的解说，伙同话都说不利索的专家嘉宾——胡指导们，实在是没什么好看的。我在我比较熟悉和喜欢的体育项目里，建议大家看看上海体育台的解说，足球，赛车和台球，比央5说的好多了，我个人很喜欢。他们基本不请什么说话无谓的专家，因为他们自己本身就是胡指导。</t>
   </si>
   <si>
@@ -1780,907 +1783,1822 @@
     <t>2017-01-26</t>
   </si>
   <si>
-    <t>小报告和胡指导_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我国的犯罪性价比_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>深圳的警察_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>今年的比赛_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>国人的奇特心理_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>这不是国际濒危的保护动物吗，杀了两都敢上新闻？_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>标题_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>礼物_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>太贵_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>这想象力_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>终于得到了年度车手总冠军_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>铁甲威龙，忍者神龟，出发_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>千万别再用电脑写诗了_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>文人几文_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>局部完美的结局_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>咨询 2_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>局部又油荒了_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>同学聚会_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>举国同庆_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>演习了_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>有喜了_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>现代诗一首_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>国家林业局５个小时后的记者发布会的现场记录_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>别这样_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>上海一些不合理的交通设施_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>千万不要这样想_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>几个事情_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>献给王唯懿_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>西_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>对于中国Ｃ－ＮＣＡＰ的质疑_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我就像这个世界_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>中央电视台很*很**_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>摄影年_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>现代诗一首：周正龙的反义词原来是陈冠希_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>香港艺人自己保重，内地警方现在没空_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>好多的皮条客_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>这一代人_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2008年1号文件_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>你是上海的小姐吗？_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>记录_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>._韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>日记 [2008年02月26日]_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>摄影年事件三，党对摄影的要求很高_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>日记 [2008年03月15日]_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>松岛枫_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>西藏问题还需出动城管_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>日记 [2008年03月20日]_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>流量太大_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>日记 [2008年03月23日]_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我和我父母的合影_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>雷_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>别拿下一代做道具——致网易论坛_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>他们对不起松岛枫_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>看过“成人网站”后的反馈_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>一种重要东西的倒退_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>他们害怕了！他们害怕了！_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>赶集_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>问_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>精准对焦大汉奸，生动捕捉卖国贼，唯有尼康_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>回答爱国者的问题_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>爱国，更爱面子_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>如果你是学生_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我要两块钱！_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>又打破世界纪录_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>看摩托GP，反对禁摩_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>引擎_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>工作汇报_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>日记 [2008年05月15日]（更新）_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>消息_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>日记 [2008年05月17日]更新。_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>再见四川_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>演唱会_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我决定_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>她在错误的时间，错误的地点和错误的媒体说……_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>第一批的物资感谢名单_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>不要动不动就举国暴怒_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我们应该更友善_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>红白来的狗_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>幸亏没入作协_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>统一大业_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>写给徐浪_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>互动_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>生而为向小孩们吹牛_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>大师们，我等无条件臣服于您_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>严禁发表个人喜好_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>伺候舒服为止_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>没头脑还不高兴_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>说点风花雪月_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>一次伟大的自慰_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>改规则_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>有一个活动_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我要求砸锅卖铁赞助奥运会_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>终于出了亚洲_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>二三事_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>好看不好看_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>点火猜想_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>和_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>假假唱_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>三四事_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>希望刘翔再破世界记录_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>熄火猜想_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>可怜的运动员_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>搞什么搞_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>中国电影金鸡巴奖和百花痴奖_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>开车被持刀抢劫怎么办_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>关于中国电影的十堆炮灰_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>哎，该怎么弄呢_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>特选无毒奶品供出口和奥运会_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>领悟_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>副主席郑主席_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>取消校服_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>驯化和孵化_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>日记 [2008年10月08日]_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>不要上天津市政府的当_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>记一件无能为力的事_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>结_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>人家明明是很单纯的麽~~~~_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>近日汇报_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>衣不如新，人还如旧_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>日记 [2008年11月11日]_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>重大好人好事_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>最贵的一次出台_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>他的国_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>必须抵制法国货_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>郑继超影视基地_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>年度总结_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>冯顺桥颂_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>五毛现形记_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>新年几事_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>期待我们往日的灵魂附体_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>嫖娼启示录_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>第一版_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>含泪劝车主书：留下买路钱_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>灾区政府采购忙，北川出手最大方_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>活着的人要更好的活下去_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>北川政府继续说谎_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>直辖市小费_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>怎样才能把官当好_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>来自上海的神秘公司_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>挪威_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>日记 [2009年03月06日]_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>没有山寨就没有新中国_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>公务员是弱势群体_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我的狗_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>两个代表_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年04月15日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>三事_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年04月24日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>新杂志的征稿信，征人信，稿费标准，投稿邮箱。_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>四事_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年05月11日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>该关心的和不该关心的_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年05月14日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年05月16日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>已通过专家论证，周边居民无需担心安全_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>为什么_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>不出意外，出意外了_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>被迫盼世博_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年05月25日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年06月05日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>嫖娼启示录   （第二季）_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>南京，6月9日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>绿坝系统提醒你，以下内容包含不良信息_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>好热_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年06月16日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年06月25日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>毫无保留_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>必须竖中指_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我很想上_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>上海大楼倒塌处理方案（内参）_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我回来了_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>紧张啊，目标太难捕捉了_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>所有人问所有人_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年07月19日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>500年前_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>胡斌进去，胡彦斌出来_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>居然真的是他_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>SAY GOODBYE_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年08月08日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>建国大业_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>几多事_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>终于和你合影了_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>赴澳大利亚监督指导世界拉力锦标赛的工作报告_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>前无古人，后有来者_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>这一定是造谣（1）_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年09月15日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>这个国家将迎来国庆，这个城市将迎来世博_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>参考消息_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>G8高速公路_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>这是一个庞大而复杂的工程_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>文化大国_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>《独唱团》_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年11月03日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年11月04日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>一条船上的人_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年11月21日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我接受谷歌的六十美元，并欢迎谷歌扫描我的图书_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>这些狗真麻烦_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>一些近况_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>拍一拍身上的土_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>给点咸菜吃_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>亚克西_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2009年12月22日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>城市，让人民死的早_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010年01月05日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我只是在探索_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>看孔子_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>海豚湾_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>感谢你,孔子_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>答记者问——送点土特产_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>亚克西填词大赛_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>春天的故事_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>太紧_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>前扑后继_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>韩峰是个好干部_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>悲伤的坐在你身旁_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我去哪里找，像你那么好_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010年3月15日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>陌生人的来信_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>散文一篇_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>诸恶与众善_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>把酒言欢  言无不尽_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>那些洗不干净的葱们_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010年05月27日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>青春_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010年06月10日  一些琐事_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>莫名，我就仇恨你_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010年06月12日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010年07月28日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>心里暖洋洋，后背凉飕飕_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010年09月03日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>保住非法字符_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010年09月22日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010年10月08日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>十一月大火的过程_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2010年，上海大火_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>后会有期_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>需要真相，还是需要符合需要的真相_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>他人的生活_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>你是谁，问这个干什么？_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>乞_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>马上会跌，跌破一千_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>独裁者没有内政_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>为了食油，声讨百度_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>给李彦宏先生的一封信_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>爱的代价_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>黄艺博是个好干部_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>三峡是个好大坝_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>游戏指南_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我在上海，活的很好_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>测试_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>格调不高怎么办_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2011年11月03日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>序言一篇_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>这事儿都过气了_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>问我_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>谈革命_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>说民主_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>要自由_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>小破文章一篇_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>正常文章一篇_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>人造方舟子_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>超常文章一篇_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>孤方请自赏_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>《光明和磊落》——我的手稿集_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我的父亲韩仁均以及他的作品_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>答春绿_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>看着手稿真欢乐——附16岁写孔庆东文章一篇_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我写下的这些都可以成为呈堂证供_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>转发——《质疑鲁迅》，作者方尺规。_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>二月零三日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>这一代人 （2012年版）_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>重庆美剧_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>让一部分人先选起来_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>写给张国荣_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>写给每一个自己_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>少年游_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>来，带你在长安街上调个头_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>各自万古流_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>就要做个臭公知_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>太平洋的风_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>操，你想怎样——几部电影的影评_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>我所理解的生活_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>一个流传多年的谣言_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>什邡的释放_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>已来的主人翁_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>关于作家维权联盟起诉百度的几点声明_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2012年09月25日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>&lt;&lt;ONE IS ALL&gt;&gt;_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>碎片_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>《春萍，我做到了》_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>东望洋_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>让大家扫兴了_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>要客访泰记_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>新年答朋友问（1）_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>地震思考录_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>一次告别_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2013年09月06日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>2013年09月27日_韩寒_新浪博客</t>
-  </si>
-  <si>
-    <t>写给那个茶水妹的《乘风破浪》诞生记_韩寒_新浪博客</t>
+    <t>小报告和胡指导</t>
+  </si>
+  <si>
+    <t>我国的犯罪性价比</t>
+  </si>
+  <si>
+    <t>深圳的警察</t>
+  </si>
+  <si>
+    <t>今年的比赛</t>
+  </si>
+  <si>
+    <t>国人的奇特心理</t>
+  </si>
+  <si>
+    <t>这不是国际濒危的保护动物吗，杀了两都敢上新闻？</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>礼物</t>
+  </si>
+  <si>
+    <t>太贵</t>
+  </si>
+  <si>
+    <t>这想象力</t>
+  </si>
+  <si>
+    <t>终于得到了年度车手总冠军</t>
+  </si>
+  <si>
+    <t>铁甲威龙，忍者神龟，出发</t>
+  </si>
+  <si>
+    <t>千万别再用电脑写诗了</t>
+  </si>
+  <si>
+    <t>文人几文</t>
+  </si>
+  <si>
+    <t>局部完美的结局</t>
+  </si>
+  <si>
+    <t>咨询 2</t>
+  </si>
+  <si>
+    <t>局部又油荒了</t>
+  </si>
+  <si>
+    <t>同学聚会</t>
+  </si>
+  <si>
+    <t>举国同庆</t>
+  </si>
+  <si>
+    <t>演习了</t>
+  </si>
+  <si>
+    <t>有喜了</t>
+  </si>
+  <si>
+    <t>现代诗一首</t>
+  </si>
+  <si>
+    <t>国家林业局５个小时后的记者发布会的现场记录</t>
+  </si>
+  <si>
+    <t>别这样</t>
+  </si>
+  <si>
+    <t>上海一些不合理的交通设施</t>
+  </si>
+  <si>
+    <t>千万不要这样想</t>
+  </si>
+  <si>
+    <t>几个事情</t>
+  </si>
+  <si>
+    <t>献给王唯懿</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>对于中国Ｃ－ＮＣＡＰ的质疑</t>
+  </si>
+  <si>
+    <t>我就像这个世界</t>
+  </si>
+  <si>
+    <t>中央电视台很*很**</t>
+  </si>
+  <si>
+    <t>摄影年</t>
+  </si>
+  <si>
+    <t>现代诗一首：周正龙的反义词原来是陈冠希</t>
+  </si>
+  <si>
+    <t>香港艺人自己保重，内地警方现在没空</t>
+  </si>
+  <si>
+    <t>好多的皮条</t>
+  </si>
+  <si>
+    <t>这一代人</t>
+  </si>
+  <si>
+    <t>2008年1号文件</t>
+  </si>
+  <si>
+    <t>你是上海的小姐吗？</t>
+  </si>
+  <si>
+    <t>记录</t>
+  </si>
+  <si>
+    <t>日记 [2008年02月26日]</t>
+  </si>
+  <si>
+    <t>摄影年事件三，党对摄影的要求很高</t>
+  </si>
+  <si>
+    <t>日记 [2008年03月15日]</t>
+  </si>
+  <si>
+    <t>松岛枫</t>
+  </si>
+  <si>
+    <t>西藏问题还需出动城管</t>
+  </si>
+  <si>
+    <t>日记 [2008年03月20日]</t>
+  </si>
+  <si>
+    <t>流量太大</t>
+  </si>
+  <si>
+    <t>日记 [2008年03月23日]</t>
+  </si>
+  <si>
+    <t>我和我父母的合影</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>别拿下一代做道具——致网易论坛</t>
+  </si>
+  <si>
+    <t>他们对不起松岛枫</t>
+  </si>
+  <si>
+    <t>看过“成人网站”后的反馈</t>
+  </si>
+  <si>
+    <t>一种重要东西的倒退</t>
+  </si>
+  <si>
+    <t>他们害怕了！他们害怕了！</t>
+  </si>
+  <si>
+    <t>赶集</t>
+  </si>
+  <si>
+    <t>问</t>
+  </si>
+  <si>
+    <t>精准对焦大汉奸，生动捕捉卖国贼，唯有尼康</t>
+  </si>
+  <si>
+    <t>回答爱国者的问题</t>
+  </si>
+  <si>
+    <t>爱国，更爱面子</t>
+  </si>
+  <si>
+    <t>如果你是学生</t>
+  </si>
+  <si>
+    <t>我要两块钱！</t>
+  </si>
+  <si>
+    <t>又打破世界纪录</t>
+  </si>
+  <si>
+    <t>看摩托GP，反对禁摩</t>
+  </si>
+  <si>
+    <t>引擎</t>
+  </si>
+  <si>
+    <t>工作汇报</t>
+  </si>
+  <si>
+    <t>日记 [2008年05月15日]（更新）</t>
+  </si>
+  <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>日记 [2008年05月17日]更新。</t>
+  </si>
+  <si>
+    <t>再见四川</t>
+  </si>
+  <si>
+    <t>演唱会</t>
+  </si>
+  <si>
+    <t>我决定</t>
+  </si>
+  <si>
+    <t>她在错误的时间，错误的地点和错误的媒体说……</t>
+  </si>
+  <si>
+    <t>第一批的物资感谢名单</t>
+  </si>
+  <si>
+    <t>不要动不动就举国暴怒</t>
+  </si>
+  <si>
+    <t>我们应该更友善</t>
+  </si>
+  <si>
+    <t>红白来的狗</t>
+  </si>
+  <si>
+    <t>幸亏没入作协</t>
+  </si>
+  <si>
+    <t>统一大业</t>
+  </si>
+  <si>
+    <t>写给徐</t>
+  </si>
+  <si>
+    <t>互动</t>
+  </si>
+  <si>
+    <t>生而为向小孩们吹牛</t>
+  </si>
+  <si>
+    <t>大师们，我等无条件臣服于您</t>
+  </si>
+  <si>
+    <t>严禁发表个人喜好</t>
+  </si>
+  <si>
+    <t>伺候舒服为止</t>
+  </si>
+  <si>
+    <t>没头脑还不高兴</t>
+  </si>
+  <si>
+    <t>说点风花雪月</t>
+  </si>
+  <si>
+    <t>一次伟大的自慰</t>
+  </si>
+  <si>
+    <t>改规则</t>
+  </si>
+  <si>
+    <t>有一个活动</t>
+  </si>
+  <si>
+    <t>我要求砸锅卖铁赞助奥运会</t>
+  </si>
+  <si>
+    <t>终于出了亚洲</t>
+  </si>
+  <si>
+    <t>二三事</t>
+  </si>
+  <si>
+    <t>好看不好看</t>
+  </si>
+  <si>
+    <t>点火猜想</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>假假唱</t>
+  </si>
+  <si>
+    <t>三四事</t>
+  </si>
+  <si>
+    <t>希望刘翔再破世界记录</t>
+  </si>
+  <si>
+    <t>熄火猜想</t>
+  </si>
+  <si>
+    <t>可怜的运动员</t>
+  </si>
+  <si>
+    <t>搞什么搞</t>
+  </si>
+  <si>
+    <t>中国电影金鸡巴奖和百花痴奖</t>
+  </si>
+  <si>
+    <t>开车被持刀抢劫怎么办</t>
+  </si>
+  <si>
+    <t>关于中国电影的十堆炮灰</t>
+  </si>
+  <si>
+    <t>哎，该怎么弄呢</t>
+  </si>
+  <si>
+    <t>特选无毒奶品供出口和奥运会</t>
+  </si>
+  <si>
+    <t>领悟</t>
+  </si>
+  <si>
+    <t>副主席郑主席</t>
+  </si>
+  <si>
+    <t>取消校服</t>
+  </si>
+  <si>
+    <t>驯化和孵化</t>
+  </si>
+  <si>
+    <t>日记 [2008年10月08日]</t>
+  </si>
+  <si>
+    <t>不要上天津市政府的当</t>
+  </si>
+  <si>
+    <t>记一件无能为力的事</t>
+  </si>
+  <si>
+    <t>结</t>
+  </si>
+  <si>
+    <t>人家明明是很单纯的麽~~~~</t>
+  </si>
+  <si>
+    <t>近日汇报</t>
+  </si>
+  <si>
+    <t>衣不如新，人还如旧</t>
+  </si>
+  <si>
+    <t>日记 [2008年11月11日]</t>
+  </si>
+  <si>
+    <t>重大好人好事</t>
+  </si>
+  <si>
+    <t>最贵的一次出台</t>
+  </si>
+  <si>
+    <t>他的国</t>
+  </si>
+  <si>
+    <t>必须抵制法国货</t>
+  </si>
+  <si>
+    <t>郑继超影视基地</t>
+  </si>
+  <si>
+    <t>年度总结</t>
+  </si>
+  <si>
+    <t>冯顺桥颂</t>
+  </si>
+  <si>
+    <t>五毛现形记</t>
+  </si>
+  <si>
+    <t>年几事</t>
+  </si>
+  <si>
+    <t>期待我们往日的灵魂附体</t>
+  </si>
+  <si>
+    <t>嫖娼启示录</t>
+  </si>
+  <si>
+    <t>第一版</t>
+  </si>
+  <si>
+    <t>含泪劝车主书：留下买路钱</t>
+  </si>
+  <si>
+    <t>灾区政府采购忙，北川出手最大方</t>
+  </si>
+  <si>
+    <t>活着的人要更好的活下去</t>
+  </si>
+  <si>
+    <t>北川政府继续说谎</t>
+  </si>
+  <si>
+    <t>直辖市小费</t>
+  </si>
+  <si>
+    <t>怎样才能把官当好</t>
+  </si>
+  <si>
+    <t>来自上海的神秘公司</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>日记 [2009年03月06日]</t>
+  </si>
+  <si>
+    <t>没有山寨就没有新中国</t>
+  </si>
+  <si>
+    <t>公务员是弱势群体</t>
+  </si>
+  <si>
+    <t>我的狗</t>
+  </si>
+  <si>
+    <t>两个代表</t>
+  </si>
+  <si>
+    <t>2009年04月15日</t>
+  </si>
+  <si>
+    <t>三事</t>
+  </si>
+  <si>
+    <t>2009年04月24日</t>
+  </si>
+  <si>
+    <t>杂志的征稿信，征人信，稿费标准，投稿邮箱。</t>
+  </si>
+  <si>
+    <t>四事</t>
+  </si>
+  <si>
+    <t>2009年05月11日</t>
+  </si>
+  <si>
+    <t>该关心的和不该关心的</t>
+  </si>
+  <si>
+    <t>2009年05月14日</t>
+  </si>
+  <si>
+    <t>2009年05月16日</t>
+  </si>
+  <si>
+    <t>已通过专家论证，周边居民无需担心安全</t>
+  </si>
+  <si>
+    <t>为什么</t>
+  </si>
+  <si>
+    <t>不出意外，出意外了</t>
+  </si>
+  <si>
+    <t>被迫盼世</t>
+  </si>
+  <si>
+    <t>2009年05月25日</t>
+  </si>
+  <si>
+    <t>2009年06月05日</t>
+  </si>
+  <si>
+    <t>嫖娼启示录   （第二季）</t>
+  </si>
+  <si>
+    <t>南京，6月9日</t>
+  </si>
+  <si>
+    <t>绿坝系统提醒你，以下内容包含不良信息</t>
+  </si>
+  <si>
+    <t>好热</t>
+  </si>
+  <si>
+    <t>2009年06月16日</t>
+  </si>
+  <si>
+    <t>2009年06月25日</t>
+  </si>
+  <si>
+    <t>毫无保留</t>
+  </si>
+  <si>
+    <t>必须竖中指</t>
+  </si>
+  <si>
+    <t>我很想上</t>
+  </si>
+  <si>
+    <t>上海大楼倒塌处理方案（内参）</t>
+  </si>
+  <si>
+    <t>我回来了</t>
+  </si>
+  <si>
+    <t>紧张啊，目标太难捕捉了</t>
+  </si>
+  <si>
+    <t>所有人问所有人</t>
+  </si>
+  <si>
+    <t>2009年07月19日</t>
+  </si>
+  <si>
+    <t>500年前</t>
+  </si>
+  <si>
+    <t>胡斌进去，胡彦斌出来</t>
+  </si>
+  <si>
+    <t>居然真的是他</t>
+  </si>
+  <si>
+    <t>SAY GOODBYE</t>
+  </si>
+  <si>
+    <t>2009年08月08日</t>
+  </si>
+  <si>
+    <t>建国大业</t>
+  </si>
+  <si>
+    <t>几多事</t>
+  </si>
+  <si>
+    <t>终于和你合影了</t>
+  </si>
+  <si>
+    <t>赴澳大利亚监督指导世界拉力锦标赛的工作报告</t>
+  </si>
+  <si>
+    <t>前无古人，后有来者</t>
+  </si>
+  <si>
+    <t>这一定是造谣（1）</t>
+  </si>
+  <si>
+    <t>2009年09月15日</t>
+  </si>
+  <si>
+    <t>这个国家将迎来国庆，这个城市将迎来世</t>
+  </si>
+  <si>
+    <t>参考消息</t>
+  </si>
+  <si>
+    <t>G8高速公路</t>
+  </si>
+  <si>
+    <t>这是一个庞大而复杂的工程</t>
+  </si>
+  <si>
+    <t>文化大国</t>
+  </si>
+  <si>
+    <t>《独唱团》</t>
+  </si>
+  <si>
+    <t>2009年11月03日</t>
+  </si>
+  <si>
+    <t>2009年11月04日</t>
+  </si>
+  <si>
+    <t>一条船上的人</t>
+  </si>
+  <si>
+    <t>2009年11月21日</t>
+  </si>
+  <si>
+    <t>我接受谷歌的六十美元，并欢迎谷歌扫描我的图书</t>
+  </si>
+  <si>
+    <t>这些狗真麻烦</t>
+  </si>
+  <si>
+    <t>一些近况</t>
+  </si>
+  <si>
+    <t>拍一拍身上的土</t>
+  </si>
+  <si>
+    <t>给点咸菜吃</t>
+  </si>
+  <si>
+    <t>亚克西</t>
+  </si>
+  <si>
+    <t>2009年12月22日</t>
+  </si>
+  <si>
+    <t>城市，让人民死的早</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2010年01月05日</t>
+  </si>
+  <si>
+    <t>我只是在探索</t>
+  </si>
+  <si>
+    <t>看孔子</t>
+  </si>
+  <si>
+    <t>海豚湾</t>
+  </si>
+  <si>
+    <t>感谢你,孔子</t>
+  </si>
+  <si>
+    <t>答记者问——送点土特产</t>
+  </si>
+  <si>
+    <t>亚克西填词大赛</t>
+  </si>
+  <si>
+    <t>春天的故事</t>
+  </si>
+  <si>
+    <t>太紧</t>
+  </si>
+  <si>
+    <t>前扑后继</t>
+  </si>
+  <si>
+    <t>峰是个好干部</t>
+  </si>
+  <si>
+    <t>悲伤的坐在你身旁</t>
+  </si>
+  <si>
+    <t>我去哪里找，像你那么好</t>
+  </si>
+  <si>
+    <t>2010年3月15日</t>
+  </si>
+  <si>
+    <t>陌生人的来信</t>
+  </si>
+  <si>
+    <t>散文一篇</t>
+  </si>
+  <si>
+    <t>诸恶与众善</t>
+  </si>
+  <si>
+    <t>把酒言欢  言无不尽</t>
+  </si>
+  <si>
+    <t>那些洗不干净的葱们</t>
+  </si>
+  <si>
+    <t>2010年05月27日</t>
+  </si>
+  <si>
+    <t>青春</t>
+  </si>
+  <si>
+    <t>2010年06月10日  一些琐事</t>
+  </si>
+  <si>
+    <t>莫名，我就仇恨你</t>
+  </si>
+  <si>
+    <t>2010年06月12日</t>
+  </si>
+  <si>
+    <t>2010年07月28日</t>
+  </si>
+  <si>
+    <t>心里暖洋洋，后背凉飕飕</t>
+  </si>
+  <si>
+    <t>2010年09月03日</t>
+  </si>
+  <si>
+    <t>保住非法字符</t>
+  </si>
+  <si>
+    <t>2010年09月22日</t>
+  </si>
+  <si>
+    <t>2010年10月08日</t>
+  </si>
+  <si>
+    <t>十一月大火的过程</t>
+  </si>
+  <si>
+    <t>2010年，上海大火</t>
+  </si>
+  <si>
+    <t>后会有期</t>
+  </si>
+  <si>
+    <t>需要真相，还是需要符合需要的真相</t>
+  </si>
+  <si>
+    <t>他人的生活</t>
+  </si>
+  <si>
+    <t>你是谁，问这个干什么？</t>
+  </si>
+  <si>
+    <t>乞</t>
+  </si>
+  <si>
+    <t>马上会跌，跌破一千</t>
+  </si>
+  <si>
+    <t>独裁者没有内政</t>
+  </si>
+  <si>
+    <t>为了食油，声讨百度</t>
+  </si>
+  <si>
+    <t>给李彦宏先生的一封信</t>
+  </si>
+  <si>
+    <t>爱的代价</t>
+  </si>
+  <si>
+    <t>黄艺博是个好干部</t>
+  </si>
+  <si>
+    <t>三峡是个好大坝</t>
+  </si>
+  <si>
+    <t>游戏指南</t>
+  </si>
+  <si>
+    <t>我在上海，活的很好</t>
+  </si>
+  <si>
+    <t>格调不高怎么办</t>
+  </si>
+  <si>
+    <t>2011年11月03日</t>
+  </si>
+  <si>
+    <t>序言一篇</t>
+  </si>
+  <si>
+    <t>这事儿都过气了</t>
+  </si>
+  <si>
+    <t>问我</t>
+  </si>
+  <si>
+    <t>谈革命</t>
+  </si>
+  <si>
+    <t>说民主</t>
+  </si>
+  <si>
+    <t>要自由</t>
+  </si>
+  <si>
+    <t>小破文章一篇</t>
+  </si>
+  <si>
+    <t>正常文章一篇</t>
+  </si>
+  <si>
+    <t>人造方舟子</t>
+  </si>
+  <si>
+    <t>超常文章一篇</t>
+  </si>
+  <si>
+    <t>孤方请自赏</t>
+  </si>
+  <si>
+    <t>《光明和磊落》——我的手稿集</t>
+  </si>
+  <si>
+    <t>我的父亲韩仁均以及他的作品</t>
+  </si>
+  <si>
+    <t>答春绿</t>
+  </si>
+  <si>
+    <t>看着手稿真欢乐——附16岁写孔庆东文章一篇</t>
+  </si>
+  <si>
+    <t>我写下的这些都可以成为呈堂证供</t>
+  </si>
+  <si>
+    <t>转发——《质疑鲁迅》，作者方尺规。</t>
+  </si>
+  <si>
+    <t>二月零三日</t>
+  </si>
+  <si>
+    <t>这一代人 （2012年版）</t>
+  </si>
+  <si>
+    <t>重庆美剧</t>
+  </si>
+  <si>
+    <t>让一部分人先选起来</t>
+  </si>
+  <si>
+    <t>写给张国荣</t>
+  </si>
+  <si>
+    <t>写给每一个自己</t>
+  </si>
+  <si>
+    <t>少年游</t>
+  </si>
+  <si>
+    <t>来，带你在长安街上调个头</t>
+  </si>
+  <si>
+    <t>各自万古流</t>
+  </si>
+  <si>
+    <t>就要做个臭公知</t>
+  </si>
+  <si>
+    <t>太平洋的风</t>
+  </si>
+  <si>
+    <t>操，你想怎样——几部电影的影评</t>
+  </si>
+  <si>
+    <t>我所理解的生活</t>
+  </si>
+  <si>
+    <t>一个流传多年的谣言</t>
+  </si>
+  <si>
+    <t>什邡的释放</t>
+  </si>
+  <si>
+    <t>已来的主人翁</t>
+  </si>
+  <si>
+    <t>关于作家维权联盟起诉百度的几点声明</t>
+  </si>
+  <si>
+    <t>2012年09月25日</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ONE IS ALL&gt;&gt;</t>
+  </si>
+  <si>
+    <t>碎片</t>
+  </si>
+  <si>
+    <t>《春萍，我做到了》</t>
+  </si>
+  <si>
+    <t>东望洋</t>
+  </si>
+  <si>
+    <t>让大家扫兴了</t>
+  </si>
+  <si>
+    <t>要客访泰记</t>
+  </si>
+  <si>
+    <t>年答朋友问（1）</t>
+  </si>
+  <si>
+    <t>地震思考录</t>
+  </si>
+  <si>
+    <t>一次告别</t>
+  </si>
+  <si>
+    <t>2013年09月06日</t>
+  </si>
+  <si>
+    <t>2013年09月27日</t>
+  </si>
+  <si>
+    <t>写给那个茶水妹的《乘风破浪》诞生记</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010006x8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100070c.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100074c.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000753.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010007ae.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000c9l.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000cat.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000cbx.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000ce8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000cof.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000cqj.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000cu0.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000cv0.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000cyp.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000d17.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000d2i.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000d3u.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000d5c.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000d61.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000d6p.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000d84.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000d8w.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01000dak.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01007wo8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01007xmv.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01007yid.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100801l.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010081nr.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008382.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010085a4.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010088ot.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008amh.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008df2.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008d9g.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008dqg.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008dmd.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008eh7.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008f3k.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008h2i.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008jf6.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008kf0.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008krq.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008mkn.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008qky.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008r8e.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008rvm.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008sjt.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008thj.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008t7r.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008v9j.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008z0p.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01008zov.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009024.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010090ey.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010090xs.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010091cn.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010092vq.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100936o.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010093g5.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100945n.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010093v1.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010093v5.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010094qa.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009530.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010096s6.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100989z.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010099sf.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009axj.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009ccz.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009cnz.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009d42.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009f7p.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009gu5.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009h7x.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009j6d.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009jqx.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009kdf.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009ktc.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009krd.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009mu4.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009obb.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009o5c.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009pw2.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009po8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009qkz.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009qtg.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009r81.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009sd3.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009szc.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009weq.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009y33.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009zls.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01009za5.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100a1gn.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100a3cb.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100a86l.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100a8z2.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100aad3.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ab7i.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100aczc.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100admm.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100aeaw.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100agjo.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100agbw.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ai51.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100akcy.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100amac.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ang1.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ao4z.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100aor3.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100apmk.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100aq1r.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100apus.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100aqu5.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100avyr.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100axo4.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100aymf.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100aysu.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100az8m.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100b32b.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100b3p1.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100b8gv.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bcja.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bdyh.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bfam.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bidz.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bk7c.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bjzo.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100blxm.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bmx2.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bngd.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bqyz.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bsnc.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bvdj.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bwqu.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bxke.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bxug.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100by9s.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bzy3.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100bzu2.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100c1wj.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100c88x.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100cbdr.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100cbzk.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100cc5a.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ci6o.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100co3d.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100crub.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ctxi.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100cwcv.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100d03h.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100d3om.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100d69e.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100d6w7.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100d84g.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100d960.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100d9nr.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100d9rj.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100daj0.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100db54.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dcxx.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dhqv.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dj9f.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dk6w.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dlh2.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dmu6.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dnq0.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dsb8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dtf5.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dtyd.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dva6.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dw50.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100dzw8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100e26x.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100e3ba.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100e460.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100e7uv.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100easn.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ebt1.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ee0m.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ef63.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100egc6.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100en8n.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100eq6k.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100erbx.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ev3s.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100evps.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100exn9.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ey1x.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ezrc.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100fc2s.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100fej4.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100fixk.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100fkq5.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100fopo.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100fozw.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100fpjr.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100fyt4.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100fzmm.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100g03k.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100g7gq.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100g801.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100g8zf.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100g9t3.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100gce1.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100gcs5.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100gfc4.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ghw3.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100gjd6.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100glm8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100gqf8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100gulz.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100gxme.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100gyzh.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100h01f.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100gzwj.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100h2p8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100h3c8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100h7b2.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100h9tc.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100hcf6.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100hd4i.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100hrm2.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ht1x.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100hy9k.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ic2e.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100igbb.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100insm.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100ixd0.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100iy7s.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100j9lt.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100japd.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100jbqq.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100khvs.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100kusa.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100l4sf.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100lcum.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100limx.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100lvjb.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100mri0.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0100mrhm.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010176x6.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010176yw.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01017hr5.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01017hsy.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01017hzx.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01017i4g.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01017ige.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01017ijd.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01017ijj.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01017iv8.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b01017j0y.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010183ai.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b010183ny.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0101854o.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102dvpk.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102dwvy.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102dwxv.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102dx7u.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102dxmp.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102dyao.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102dz5s.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102dz84.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102dz9f.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e02q.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e061.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e074.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e06b.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e07s.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e0ak.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e0eu.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e0hj.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e0fm.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e0ib.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e0l4.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e0p3.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e0th.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e11n.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e150.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e3nr.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e3v6.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e42a.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e490.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e4gf.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e4qq.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e5np.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e63p.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e7er.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e7pk.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e7vx.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e7wj.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102e85j.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102eau0.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102eb6w.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102eb8d.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102ec39.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102eck1.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102ecxd.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102edcd.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102ef4t.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102egl0.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102ek51.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102eksm.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102elmo.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102eohi.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102wrup.html</t>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_4701280b0102wruo.html</t>
   </si>
 </sst>
 </file>
@@ -3038,13 +3956,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D308"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3054,4294 +3972,5218 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>589</v>
+      </c>
+      <c r="E2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>590</v>
+      </c>
+      <c r="E3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>591</v>
+      </c>
+      <c r="E4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>592</v>
+      </c>
+      <c r="E5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>593</v>
+      </c>
+      <c r="E6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>594</v>
+      </c>
+      <c r="E7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>595</v>
+      </c>
+      <c r="E8" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>596</v>
+      </c>
+      <c r="E9" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>597</v>
+      </c>
+      <c r="E10" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>598</v>
+      </c>
+      <c r="E11" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>599</v>
+      </c>
+      <c r="E12" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>600</v>
+      </c>
+      <c r="E13" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D14" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>601</v>
+      </c>
+      <c r="E14" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D15" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>602</v>
+      </c>
+      <c r="E15" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D16" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>603</v>
+      </c>
+      <c r="E16" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D17" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>604</v>
+      </c>
+      <c r="E17" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D18" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>605</v>
+      </c>
+      <c r="E18" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D19" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>606</v>
+      </c>
+      <c r="E19" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D20" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>607</v>
+      </c>
+      <c r="E20" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D21" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>608</v>
+      </c>
+      <c r="E21" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D22" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>609</v>
+      </c>
+      <c r="E22" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D23" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>610</v>
+      </c>
+      <c r="E23" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D24" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>611</v>
+      </c>
+      <c r="E24" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D25" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>612</v>
+      </c>
+      <c r="E25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D26" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>613</v>
+      </c>
+      <c r="E26" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>614</v>
+      </c>
+      <c r="E27" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D28" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>615</v>
+      </c>
+      <c r="E28" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D29" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>616</v>
+      </c>
+      <c r="E29" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D30" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>617</v>
+      </c>
+      <c r="E30" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D31" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>618</v>
+      </c>
+      <c r="E31" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D32" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>619</v>
+      </c>
+      <c r="E32" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D33" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>620</v>
+      </c>
+      <c r="E33" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D34" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>621</v>
+      </c>
+      <c r="E34" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D35" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>622</v>
+      </c>
+      <c r="E35" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D36" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>623</v>
+      </c>
+      <c r="E36" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D37" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>624</v>
+      </c>
+      <c r="E37" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D38" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>625</v>
+      </c>
+      <c r="E38" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D39" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>626</v>
+      </c>
+      <c r="E39" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D40" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>627</v>
+      </c>
+      <c r="E40" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D41" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>628</v>
+      </c>
+      <c r="E41" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D42" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D43" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D44" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D45" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D46" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D47" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D48" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D49" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D50" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D51" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D52" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D53" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D54" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D55" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D56" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D57" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D58" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D59" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D60" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D61" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D62" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D63" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D64" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D65" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D66" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D67" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D68" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D69" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D70" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D71" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D72" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D73" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D74" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D76" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D77" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D78" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D79" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D80" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E80" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D81" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D82" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D83" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D84" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D85" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D86" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D87" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D88" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D89" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D90" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D91" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D92" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D93" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D94" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D95" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D96" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D97" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D98" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D99" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D100" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D101" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D102" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D103" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D104" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D105" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D106" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D107" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D108" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D109" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D110" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D111" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D112" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D113" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D114" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D115" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D116" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D117" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D118" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D119" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D120" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D121" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D122" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D123" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D124" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D125" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D126" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D127" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D128" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D129" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D130" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D131" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D132" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D133" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D134" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D135" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D136" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D137" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D138" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D139" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D140" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D141" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D142" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D143" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D144" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D145" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D146" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D147" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D148" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D149" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D150" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D151" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D152" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D153" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D154" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D155" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D156" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D157" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D158" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D159" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D160" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D161" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D162" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D163" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D164" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D165" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D166" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D167" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D168" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D169" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D170" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D171" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D172" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D173" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D174" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D175" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D176" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D177" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D178" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D179" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D180" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D181" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D182" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D183" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D184" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D185" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D186" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D187" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D188" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D189" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D190" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D191" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D192" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D193" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D194" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D195" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D196" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D197" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D198" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D199" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D200" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C201" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D201" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D202" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C203" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D203" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C204" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D204" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="C205" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D205" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D206" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D207" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D208" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D209" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D210" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D211" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D212" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D213" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C214" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D214" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C215" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D215" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C216" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D216" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C217" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D217" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C218" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D218" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D219" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C220" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D220" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D221" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D222" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D223" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D224" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D225" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D226" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D227" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D228" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D229" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D230" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D231" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D232" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D233" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D234" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="E234" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D235" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="E235" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D236" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="E236" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D237" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="E237" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D238" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="E238" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D239" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="E239" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D240" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D241" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D242" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="E242" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D243" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="E243" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D244" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="E244" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D245" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="E245" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D246" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="E246" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D247" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="E247" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D248" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="E248" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D249" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="E249" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D250" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="E250" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D251" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="E251" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D252" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="E252" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C253" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D253" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="E253" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C254" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D254" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="E254" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C255" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D255" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="E255" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C256" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D256" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="E256" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C257" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D257" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>254</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C258" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D258" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>839</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C259" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D259" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>840</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C260" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D260" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>841</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C261" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D261" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>842</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C262" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D262" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>843</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C263" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D263" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>844</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C264" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D264" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>845</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C265" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D265" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>846</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C266" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D266" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+        <v>847</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C267" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D267" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>848</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C268" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D268" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>849</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C269" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D269" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>850</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C270" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D270" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>851</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C271" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D271" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+        <v>852</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C272" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D272" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>853</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C273" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D273" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>854</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C274" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D274" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>855</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C275" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D275" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>856</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C276" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D276" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>857</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C277" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D277" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>858</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C278" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D278" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>859</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C279" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D279" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>860</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C280" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D280" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+        <v>861</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C281" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D281" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+        <v>862</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C282" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D282" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>863</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C283" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D283" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>864</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C284" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D284" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>865</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C285" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D285" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>866</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C286" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D286" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>867</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C287" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D287" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>868</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C288" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D288" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+        <v>869</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C289" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D289" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>870</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C290" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D290" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>871</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C291" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D291" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>872</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C292" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D292" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
+        <v>873</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C293" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D293" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+        <v>874</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C294" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D294" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+        <v>875</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C295" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D295" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
+        <v>876</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C296" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D296" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+        <v>877</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C297" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D297" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
+        <v>878</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="1">
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D298" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
+        <v>879</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D299" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
+        <v>880</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D300" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
+        <v>881</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D301" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
+        <v>882</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D302" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
+        <v>883</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" s="1">
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D303" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
+        <v>884</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="1">
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C304" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D304" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
+        <v>885</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C305" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D305" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
+        <v>886</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C306" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D306" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C307" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D307" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
+        <v>887</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C308" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D308" t="s">
-        <v>888</v>
+        <v>887</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
